--- a/static/results/2026_territoriale_ammessi_nazionali.xlsx
+++ b/static/results/2026_territoriale_ammessi_nazionali.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="168">
   <si>
     <t xml:space="preserve">Codice_meccanografico</t>
   </si>
@@ -148,214 +148,193 @@
     <t xml:space="preserve">C</t>
   </si>
   <si>
-    <t xml:space="preserve">MIPS08000T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A. Volta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Milano</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Andrea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Miele</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2008-12-29</t>
+    <t xml:space="preserve">LEPC03000R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liceo Classico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G. Palmieri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lecce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Puglia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fabrizio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giacomi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2008-11-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBPS240002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Banfi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vimercate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Davide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raffaele</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2008-07-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TVPS01000X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liceo Da Vinci</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Treviso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alberto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Steffenato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2009-02-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fabio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cigaina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2009-05-08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HFARMVE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scuola Internazionale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H-Farm Venice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roncade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tikhon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vodyanov</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2008-11-28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VRTF03000V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Istituto Tecnico Industriale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guglielmo Marconi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verona</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Silvio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Landers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2008-06-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAPS02000B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alberti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cagliari</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sardegna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Michele</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tronci</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2009-01-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UDPS05000P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N. Copernico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Udine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Friuli-Venezia Giulia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agostino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carrara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2008-09-29</t>
   </si>
   <si>
     <t xml:space="preserve">E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LEPC03000R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Liceo Classico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G. Palmieri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lecce</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Puglia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fabrizio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Giacomi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2008-11-17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MBPS240002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Banfi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vimercate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Davide</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Raffaele</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2008-07-17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TVPS01000X</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Liceo Da Vinci</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Treviso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alberto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Steffenato</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2009-02-04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fabio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cigaina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2009-05-08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HFARMVE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scuola Internazionale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H-Farm Venice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Roncade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tikhon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vodyanov</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2008-11-28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VRTF03000V</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Istituto Tecnico Industriale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guglielmo Marconi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verona</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Silvio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Landers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2008-06-11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAPS02000B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alberti</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cagliari</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sardegna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Michele</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tronci</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2009-01-18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UDPS05000P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N. Copernico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Udine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Friuli-Venezia Giulia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agostino</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carrara</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2008-09-29</t>
   </si>
   <si>
     <t xml:space="preserve">TNPS01000V</t>
@@ -560,6 +539,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -645,20 +625,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="32.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="17.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="17.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="9.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="7.41"/>
@@ -824,45 +804,45 @@
         <v>42</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I5" s="0" t="s">
         <v>20</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K5" s="0" t="n">
         <v>4</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>52</v>
@@ -874,25 +854,25 @@
         <v>54</v>
       </c>
       <c r="F6" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="G6" s="0" t="s">
+      <c r="H6" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="H6" s="0" t="s">
+      <c r="I6" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="I6" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="J6" s="1" t="s">
+      <c r="K6" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="L6" s="0" t="s">
         <v>58</v>
-      </c>
-      <c r="K6" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="L6" s="0" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -912,7 +892,7 @@
         <v>62</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="G7" s="0" t="s">
         <v>63</v>
@@ -935,78 +915,78 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>33</v>
       </c>
       <c r="C8" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="H8" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="I8" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E8" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="H8" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="I8" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="K8" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>74</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="E9" s="0" t="s">
         <v>62</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="G9" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="H9" s="0" t="s">
         <v>75</v>
       </c>
-      <c r="H9" s="0" t="s">
+      <c r="I9" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="I9" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="J9" s="1" t="s">
+      <c r="K9" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="L9" s="0" t="s">
         <v>77</v>
-      </c>
-      <c r="K9" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="L9" s="0" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1023,36 +1003,36 @@
         <v>81</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="F10" s="0" t="s">
         <v>27</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I10" s="0" t="s">
         <v>20</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K10" s="0" t="n">
         <v>4</v>
       </c>
       <c r="L10" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>87</v>
+        <v>33</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>88</v>
@@ -1064,197 +1044,197 @@
         <v>90</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>27</v>
+        <v>91</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I11" s="0" t="s">
         <v>20</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K11" s="0" t="n">
         <v>4</v>
       </c>
       <c r="L11" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>33</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I12" s="0" t="s">
         <v>20</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K12" s="0" t="n">
         <v>4</v>
       </c>
       <c r="L12" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>33</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I13" s="0" t="s">
         <v>20</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K13" s="0" t="n">
         <v>4</v>
       </c>
       <c r="L13" s="0" t="s">
-        <v>49</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>33</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="I14" s="0" t="s">
         <v>20</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="K14" s="0" t="n">
         <v>4</v>
       </c>
       <c r="L14" s="0" t="s">
-        <v>120</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>33</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I15" s="0" t="s">
         <v>20</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K15" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L15" s="0" t="s">
-        <v>41</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>132</v>
+        <v>36</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>133</v>
+        <v>37</v>
       </c>
       <c r="G16" s="0" t="s">
         <v>134</v>
@@ -1269,7 +1249,7 @@
         <v>136</v>
       </c>
       <c r="K16" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L16" s="0" t="s">
         <v>137</v>
@@ -1289,10 +1269,10 @@
         <v>140</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>36</v>
+        <v>125</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>37</v>
+        <v>126</v>
       </c>
       <c r="G17" s="0" t="s">
         <v>141</v>
@@ -1307,7 +1287,7 @@
         <v>143</v>
       </c>
       <c r="K17" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L17" s="0" t="s">
         <v>144</v>
@@ -1318,7 +1298,7 @@
         <v>145</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="C18" s="0" t="s">
         <v>146</v>
@@ -1327,86 +1307,86 @@
         <v>147</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>133</v>
+        <v>27</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I18" s="0" t="s">
         <v>20</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K18" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L18" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>33</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>27</v>
+        <v>157</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="I19" s="0" t="s">
         <v>20</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K19" s="0" t="n">
         <v>4</v>
       </c>
       <c r="L19" s="0" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>33</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="G20" s="0" t="s">
         <v>165</v>
@@ -1424,45 +1404,7 @@
         <v>4</v>
       </c>
       <c r="L20" s="0" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
-        <v>169</v>
-      </c>
-      <c r="B21" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="D21" s="0" t="s">
-        <v>171</v>
-      </c>
-      <c r="E21" s="0" t="s">
-        <v>163</v>
-      </c>
-      <c r="F21" s="0" t="s">
-        <v>164</v>
-      </c>
-      <c r="G21" s="0" t="s">
-        <v>172</v>
-      </c>
-      <c r="H21" s="0" t="s">
-        <v>173</v>
-      </c>
-      <c r="I21" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="K21" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="L21" s="0" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
